--- a/V3/main_test_cases.xlsx .xlsx
+++ b/V3/main_test_cases.xlsx .xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheba/CPR101NAA_BB05/V2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheba/CPR101NAA_BB05/V3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CAF5A6-817C-0C46-AA23-F5F36B1DD20D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D75733-06A0-0247-8FB8-52EFBF97E3E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="500" windowWidth="28120" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="500" windowWidth="28120" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseMatrix" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
           <rPr>
             <b/>
             <sz val="12"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -54,7 +54,7 @@
         <r>
           <rPr>
             <sz val="12"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve"> means a positive test expecting a successful result.
@@ -64,7 +64,7 @@
           <rPr>
             <b/>
             <sz val="12"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -73,7 +73,7 @@
         <r>
           <rPr>
             <sz val="12"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve"> means a negative test to generate a validation message or explore unexpected, undefined behaviours.</t>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t>Comments</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>FAIL</t>
-  </si>
-  <si>
-    <t>Final Project</t>
   </si>
   <si>
     <t>Sheba Birhanu</t>
@@ -214,6 +211,25 @@
   </si>
   <si>
     <t>Wed Apr 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">convertingInt();
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">convertingLong()
+</t>
+  </si>
+  <si>
+    <t>fundamentalsIndexing();
+fundamentalsMeasuring();
+fundamentalsCopying();
+convertingInt();
+convertingDouble();
+convertingLong(0);</t>
+  </si>
+  <si>
+    <t>Main</t>
   </si>
 </sst>
 </file>
@@ -254,18 +270,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -282,6 +286,18 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
     </font>
   </fonts>
   <fills count="4">
@@ -619,16 +635,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -664,22 +680,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -969,7 +985,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -990,7 +1006,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -999,7 +1015,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="42" t="s">
         <v>3</v>
@@ -1010,10 +1026,10 @@
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="F2" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" s="38" t="s">
         <v>9</v>
@@ -1054,22 +1070,22 @@
     </row>
     <row r="4" spans="1:11" ht="70" x14ac:dyDescent="0.2">
       <c r="A4" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="35" t="s">
         <v>26</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>27</v>
       </c>
       <c r="G4" s="44"/>
       <c r="H4" s="35"/>
@@ -1078,22 +1094,22 @@
     </row>
     <row r="5" spans="1:11" ht="70" x14ac:dyDescent="0.2">
       <c r="A5" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="36" t="s">
         <v>26</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>27</v>
       </c>
       <c r="G5" s="46"/>
       <c r="H5" s="43"/>
@@ -1102,70 +1118,70 @@
     </row>
     <row r="6" spans="1:11" ht="70" x14ac:dyDescent="0.2">
       <c r="A6" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="36" t="s">
         <v>26</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>27</v>
       </c>
       <c r="G6" s="45"/>
       <c r="H6" s="36"/>
       <c r="I6" s="2"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="70" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="84" x14ac:dyDescent="0.2">
       <c r="A7" s="47" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="34">
         <v>0</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="45"/>
       <c r="H7" s="36"/>
       <c r="I7" s="2"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" ht="56" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="84" x14ac:dyDescent="0.2">
       <c r="A8" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="36" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>27</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="36"/>
@@ -1174,23 +1190,23 @@
     </row>
     <row r="9" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>37</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>38</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="36" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="36"/>
       <c r="I9" s="2"/>
@@ -1198,19 +1214,19 @@
     </row>
     <row r="10" spans="1:11" ht="56" x14ac:dyDescent="0.2">
       <c r="A10" s="47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="33" t="s">
         <v>34</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>35</v>
       </c>
       <c r="F10" s="36" t="s">
         <v>12</v>
@@ -1222,16 +1238,16 @@
     </row>
     <row r="11" spans="1:11" ht="56" x14ac:dyDescent="0.2">
       <c r="A11" s="47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="D11" s="18" t="s">
         <v>16</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>17</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="36" t="s">

--- a/V3/main_test_cases.xlsx .xlsx
+++ b/V3/main_test_cases.xlsx .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheba/CPR101NAA_BB05/V3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D75733-06A0-0247-8FB8-52EFBF97E3E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C02A1A8-87A0-6F4E-A76E-41F80A307EF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="500" windowWidth="28120" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>Comments</t>
   </si>
@@ -123,113 +123,73 @@
     <t xml:space="preserve">+ / - Description </t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>Sheba Birhanu</t>
   </si>
   <si>
-    <t>Edge Case: numbers and characters</t>
-  </si>
-  <si>
-    <t>Input a string with numbers and a character</t>
-  </si>
-  <si>
-    <t>If there are numbers at the beginning of string, they are converted up the the first character - want to reprompt user</t>
-  </si>
-  <si>
-    <t>Version 2</t>
-  </si>
-  <si>
-    <t>+ Edge case: Maximum</t>
-  </si>
-  <si>
-    <t>Typically expected values (1-30 chars)</t>
-  </si>
-  <si>
-    <t>+ Edge case: Minimum</t>
-  </si>
-  <si>
-    <t>Edge Case: 0</t>
-  </si>
-  <si>
-    <t>Edge case: empty</t>
-  </si>
-  <si>
-    <t>Edge case: full</t>
-  </si>
-  <si>
     <t>Multiple test</t>
   </si>
   <si>
-    <t>fundamentalsIndexing();
-fundamentalsMeasuring();
-convertingInt();
-convertingDouble();</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
   <si>
-    <t xml:space="preserve">3, 2, fadsfa, sfdsafsafdsafasfadfasdfdsa, 44, </t>
-  </si>
-  <si>
-    <t>dfdfasfdsafasfasfasfasdfasfdsfasdfsafsdafasdfasdfdsafasdfadadsa, 24324324234324234324324234324324324234E23423</t>
-  </si>
-  <si>
-    <t>1, 0, 4, F, 6</t>
-  </si>
-  <si>
-    <t>See above</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Reprompt for entry</t>
-  </si>
-  <si>
     <t>Move from one module to next</t>
   </si>
   <si>
     <t>Modules end after multiple tests</t>
   </si>
   <si>
-    <t>prompt for char position/display char length/display converted int/display converted string</t>
-  </si>
-  <si>
-    <t>DSFASFSADFDASFADSFSAFDASFDSAFDSAFADSFASFSADFDASFADSFSAFDASFDSAFDSAFA  DSFASFSADFDASFADSFSAFDASFDSAFDSAFA  DSFASFSADFDASFADSFSAFDASFDSAFDSAFA  DSFASFSADFDASFADSFSAFDASFDSAFDSAFA  DSFASFSADFDASFADSFSAFDASFDSAFDSAFA  DSFASFSADFDASFADSFSAFDASFDSAFDSAFA  DSFASFSADFDASFADSFSAFDASFDSAFDSAFA  DSFASFSADFDASFADSFSAFDASFDSAFDSAFA  DSFASFSADFDASFADSFSAFDASFDSAFDSAFA  DSFASFSADFDASFADSFSAFDASFDSAFDSAFA  DSFASFSADFDASFADSFSAFDASFDSAFDSAFA  DSFASFSADFDASFADSFSAFDASFDSAFDSAFA  DSFASFSADFDASFADSFSAFDASFDSAFDSAFA  DSFASFSADFDASFADSFSAFDASFDSAFDSAFA  DSFASFSAFDASFADSFSAFDASFDSAFDSAFA  ,
-3242342423423432432432424324223424234234324324324243242234242342343243243242432422342423423432432432424324223424234234324324324243242234242342343243243242432422342423423432432432424324223424234234324324324243242234242342343243243242432422342423423432432432424324223424234234324324324243242234242342343243243242432422342423423432432432424324223424234234324324324243242234242342343243243242432422342423423432432432424324223424234234324324324243242234242342343243243242432422342423423432432432424324223424234234324324324243242234242342343243243242432422342423423432432432424324223424234234324324324243242</t>
-  </si>
-  <si>
-    <t>prompt for char position/display char length/display converted int/display converted string
-convertingInt() displays converted number "-1" when string is too large
-convertingInt() displays converted number is "inf"</t>
-  </si>
-  <si>
-    <t>To be fixed in Version 3</t>
-  </si>
-  <si>
     <t>Wed Apr 14</t>
   </si>
   <si>
-    <t xml:space="preserve">convertingInt();
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">convertingLong()
-</t>
-  </si>
-  <si>
-    <t>fundamentalsIndexing();
-fundamentalsMeasuring();
-fundamentalsCopying();
-convertingInt();
-convertingDouble();
-convertingLong(0);</t>
-  </si>
-  <si>
     <t>Main</t>
+  </si>
+  <si>
+    <t>main();</t>
+  </si>
+  <si>
+    <t>q' quits all programs</t>
+  </si>
+  <si>
+    <t>Version 3</t>
+  </si>
+  <si>
+    <t>read all inputs</t>
+  </si>
+  <si>
+    <t>calls all 6 programs</t>
+  </si>
+  <si>
+    <t>Visual separation between programs</t>
+  </si>
+  <si>
+    <t>Repeated entries of the same questions</t>
+  </si>
+  <si>
+    <t>Entering 'q' into all modules</t>
+  </si>
+  <si>
+    <t>quit and move to next module</t>
+  </si>
+  <si>
+    <t>(gets) function requesting input from user</t>
+  </si>
+  <si>
+    <t>user asked to type input</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>fundamentals and converting functions run successfully</t>
+  </si>
+  <si>
+    <t>all 6 modules will run successfully</t>
+  </si>
+  <si>
+    <t>\n' placed appropriately to visually distinguish between modules</t>
+  </si>
+  <si>
+    <t>breaks between modules</t>
   </si>
 </sst>
 </file>
@@ -551,7 +511,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -696,6 +656,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -985,7 +948,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1006,7 +969,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -1015,7 +978,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" s="42" t="s">
         <v>3</v>
@@ -1026,10 +989,10 @@
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="F2" s="38" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H2" s="38" t="s">
         <v>9</v>
@@ -1068,191 +1031,155 @@
       </c>
       <c r="K3" s="12"/>
     </row>
-    <row r="4" spans="1:11" ht="70" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="28" x14ac:dyDescent="0.2">
       <c r="A4" s="47" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G4" s="44"/>
       <c r="H4" s="35"/>
       <c r="I4" s="1"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="70" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="47" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G5" s="46"/>
       <c r="H5" s="43"/>
       <c r="I5" s="46"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="70" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="47" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="32" t="s">
-        <v>35</v>
-      </c>
       <c r="E6" s="32" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G6" s="45"/>
       <c r="H6" s="36"/>
       <c r="I6" s="2"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="84" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="47" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="34">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>31</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G7" s="45"/>
       <c r="H7" s="36"/>
       <c r="I7" s="2"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" ht="84" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="28" x14ac:dyDescent="0.2">
       <c r="A8" s="47" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>33</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>32</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E8" s="32"/>
       <c r="F8" s="36" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="36"/>
       <c r="I8" s="2"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A9" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>37</v>
-      </c>
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>38</v>
-      </c>
+      <c r="F9" s="36"/>
+      <c r="G9" s="51"/>
       <c r="H9" s="36"/>
       <c r="I9" s="2"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" ht="56" x14ac:dyDescent="0.2">
-      <c r="A10" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>12</v>
-      </c>
+    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="7"/>
       <c r="H10" s="36"/>
       <c r="I10" s="2"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="56" x14ac:dyDescent="0.2">
-      <c r="A11" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>16</v>
-      </c>
+    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="47"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="36" t="s">
-        <v>12</v>
-      </c>
+      <c r="F11" s="36"/>
       <c r="G11" s="7"/>
       <c r="H11" s="36"/>
       <c r="I11" s="2"/>
